--- a/MobileTesting/target/test-classes/SourceFile/ContactMemberList.xlsx
+++ b/MobileTesting/target/test-classes/SourceFile/ContactMemberList.xlsx
@@ -29,7 +29,7 @@
     <t>Jashpal</t>
   </si>
   <si>
-    <t>ZY322C2QWX</t>
+    <t>emulator</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
